--- a/_CONCAT_Doval_Alamein.xlsx
+++ b/_CONCAT_Doval_Alamein.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD29A54-B071-4B07-9B1C-1744F32B1071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C692ED1-9D71-4A26-A74E-59123777CC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="990" windowWidth="26955" windowHeight="17400" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="735" yWindow="840" windowWidth="26955" windowHeight="17400" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,94 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
-  <si>
-    <t>Hold Point 2</t>
-  </si>
-  <si>
-    <t>Hold Point 1</t>
-  </si>
-  <si>
-    <t>Milestone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drawing Notes_x000D_
-</t>
-  </si>
-  <si>
-    <t>Check and Verify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geotextile  to be used as specified in approved drawings </t>
-  </si>
-  <si>
-    <t>Storage, packaging and identification on site</t>
-  </si>
-  <si>
-    <t>MRTS27 Clause_x000D_
-7</t>
-  </si>
-  <si>
-    <t>Geotextiles shall be stored under protective cover or wrapped with a waterproof, opaque UV protective sheeting to avoid any damage prior to installation._x000D_
-_x000D_
-Geotextiles shall not be stored directly on the ground or in any manner in which they may be affected by heat. The method of storage shall be in accordance with any other recommendations set by the manufacturer._x000D_
-_x000D_
-The protected geotextile rolls shall be clearly labelled showing manufacturer, type of geotextile and batch number identification number</t>
-  </si>
-  <si>
-    <t>Geotextile Construction Procedure</t>
-  </si>
-  <si>
-    <t>MRTS57 Clause_x000D_
-5.2</t>
-  </si>
-  <si>
-    <t>A construction procedure detailing all work described in this Technical Specification shall be prepared. The construction procedure shall be consistent with the guidelines set out in the Transport and Main Road’s Pavement Rehabilitation Manual April 2012, Sections 4.4.6 to 4.4.6.8._x000D_
-The proposed construction procedure shall be submitted to the Administrator at least 14 days prior to the commencement of any works related to the placement of paving geotextile(s)</t>
-  </si>
-  <si>
-    <t>Approval of construction Procedure</t>
-  </si>
-  <si>
-    <t>No works related to the placement of paving geotextile(s) shall commence until the construction procedures have been approved by the Administrator and the Administrator has given the Contractor permission to proceed.</t>
-  </si>
-  <si>
-    <t>Ordering - Technical Data</t>
-  </si>
-  <si>
-    <t>MRTS57 Cl 8.2</t>
-  </si>
-  <si>
-    <t>At least 14 days prior to the proposed ordering date of any geotextile, the Contractor shall submit to the Administrator a copy of the proposed manufacturer’s technical data sheet and a sample of the proposed geotextile from the manufacturer demonstrating compliance with this Technical Specification</t>
-  </si>
-  <si>
-    <t>Ordering</t>
-  </si>
-  <si>
-    <t>The Contractor shall not order any geotextile prior to the acceptance of that geotextile by the Administrator.</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>MRTS57 Cl 8.4</t>
-  </si>
-  <si>
-    <t>With each batch of geotextile incorporated in the Works, a certificate of compliance stating that the geotextile complies with all the requirements of this Technical Specification as appropriate to the application, together with test results reported on NATA endorsed test documents, shall be included in the Quality Records</t>
-  </si>
-  <si>
-    <t>Surface Terperature</t>
-  </si>
-  <si>
-    <t>MRTS57 Cl 9.3</t>
-  </si>
-  <si>
-    <t>Spraying of bitumen or placement of geotextile shall not commence until the temperature of the surface of the pavement is above the temperature specified in MRTS11 Sprayed Bituminous Surfacing</t>
-  </si>
-  <si>
-    <t>Geotextile Filtration CHAR(AMP) Strength Class</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,7 +428,7 @@
   <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2:AG33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -591,565 +504,275 @@
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="M2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="AB2" t="str">
+      <c r="AB2">
         <f>A2</f>
-        <v>Geotextile Filtration CHAR(AMP) Strength Class</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;A3</f>
-        <v xml:space="preserve">Acceptance Criteria and Frequency (Project Specific) - Geotextile  to be used as specified in approved drawings </v>
+        <f>"Acceptance Criteria and Frequency - "&amp;A3</f>
+        <v xml:space="preserve">Acceptance Criteria and Frequency - </v>
       </c>
       <c r="AD2" t="str">
         <f>"Reference - "&amp;K2</f>
-        <v xml:space="preserve">Reference - Drawing Notes_x000D_
-</v>
+        <v xml:space="preserve">Reference - </v>
       </c>
       <c r="AE2" t="str">
         <f>"Item Check - "&amp;L2</f>
-        <v>Item Check - Check and Verify</v>
+        <v xml:space="preserve">Item Check - </v>
       </c>
-      <c r="AG2" t="str" cm="1">
-        <f t="array" ref="AG2:AG33">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AB2:AE59)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>Geotextile Filtration CHAR(AMP) Strength Class</v>
+      <c r="AG2" cm="1">
+        <f t="array" ref="AG2:AG5">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AB2:AE59)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="AG3" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - Geotextile  to be used as specified in approved drawings</v>
+        <v>Acceptance Criteria and Frequency -</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>7</v>
+      <c r="K4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="AG4" t="str">
+        <v>Reference -</v>
       </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="AB4" t="str">
-        <f>A4</f>
-        <v>Storage, packaging and identification on site</v>
-      </c>
-      <c r="AC4" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;A5</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - Geotextiles shall be stored under protective cover or wrapped with a waterproof, opaque UV protective sheeting to avoid any damage prior to installation._x000D_
-_x000D_
-Geotextiles shall not be stored directly on the ground or in any manner in which they may be affected by heat. The method of storage shall be in accordance with any other recommendations set by the manufacturer._x000D_
-_x000D_
-The protected geotextile rolls shall be clearly labelled showing manufacturer, type of geotextile and batch number identification number</v>
-      </c>
-      <c r="AD4" t="str">
-        <f>"Reference - "&amp;K4</f>
-        <v>Reference - MRTS27 Clause_x000D_
-7</v>
-      </c>
-      <c r="AE4" t="str">
-        <f>"Item Check - "&amp;L4</f>
-        <v>Item Check - Check and Verify</v>
-      </c>
-      <c r="AG4" t="str">
-        <v>Reference - Drawing Notes</v>
-      </c>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="F5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="AG5" t="str">
-        <v>Item Check - Check and Verify</v>
+        <v>Item Check -</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="AB6" t="str">
-        <f>A6</f>
-        <v>Geotextile Construction Procedure</v>
-      </c>
-      <c r="AC6" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;A7</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - A construction procedure detailing all work described in this Technical Specification shall be prepared. The construction procedure shall be consistent with the guidelines set out in the Transport and Main Road’s Pavement Rehabilitation Manual April 2012, Sections 4.4.6 to 4.4.6.8._x000D_
-The proposed construction procedure shall be submitted to the Administrator at least 14 days prior to the commencement of any works related to the placement of paving geotextile(s)</v>
-      </c>
-      <c r="AD6" t="str">
-        <f>"Reference - "&amp;K6</f>
-        <v>Reference - MRTS57 Clause_x000D_
-5.2</v>
-      </c>
-      <c r="AE6" t="str">
-        <f>"Item Check - "&amp;L6</f>
-        <v>Item Check - Milestone</v>
-      </c>
-      <c r="AG6" t="str">
-        <v>Storage, packaging and identification on site</v>
-      </c>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AG7" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - Geotextiles shall be stored under protective cover or wrapped with a waterproof, opaque UV protective sheeting to avoid any damage prior to installation.
-Geotextiles shall not be stored directly on the ground or in any manner in which they may be affected by heat. The method of storage shall be in accordance with any other recommendations set by the manufacturer.
-The protected geotextile rolls shall be clearly labelled showing manufacturer, type of geotextile and batch number identification number</v>
-      </c>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="M8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="AB8" t="str">
-        <f>A8</f>
-        <v>Approval of construction Procedure</v>
-      </c>
-      <c r="AC8" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;A9</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - No works related to the placement of paving geotextile(s) shall commence until the construction procedures have been approved by the Administrator and the Administrator has given the Contractor permission to proceed.</v>
-      </c>
-      <c r="AD8" t="str">
-        <f>"Reference - "&amp;K8</f>
-        <v>Reference - MRTS57 Clause_x000D_
-5.2</v>
-      </c>
-      <c r="AE8" t="str">
-        <f>"Item Check - "&amp;L8</f>
-        <v>Item Check - Hold Point 1</v>
-      </c>
-      <c r="AG8" t="str">
-        <v>Reference - MRTS27 Clause
-7</v>
-      </c>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="E9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="AG9" t="str">
-        <v>Item Check - Check and Verify</v>
-      </c>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2</v>
-      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="AB10" t="str">
-        <f>A10</f>
-        <v>Ordering - Technical Data</v>
-      </c>
-      <c r="AC10" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;A11</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - At least 14 days prior to the proposed ordering date of any geotextile, the Contractor shall submit to the Administrator a copy of the proposed manufacturer’s technical data sheet and a sample of the proposed geotextile from the manufacturer demonstrating compliance with this Technical Specification</v>
-      </c>
-      <c r="AD10" t="str">
-        <f>"Reference - "&amp;K10</f>
-        <v>Reference - MRTS57 Cl 8.2</v>
-      </c>
-      <c r="AE10" t="str">
-        <f>"Item Check - "&amp;L10</f>
-        <v>Item Check - Milestone</v>
-      </c>
-      <c r="AG10" t="str">
-        <v>Geotextile Construction Procedure</v>
-      </c>
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="AG11" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - A construction procedure detailing all work described in this Technical Specification shall be prepared. The construction procedure shall be consistent with the guidelines set out in the Transport and Main Road’s Pavement Rehabilitation Manual April 2012, Sections 4.4.6 to 4.4.6.8.
-The proposed construction procedure shall be submitted to the Administrator at least 14 days prior to the commencement of any works related to the placement of paving geotextile(s)</v>
-      </c>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="AB12" t="str">
-        <f>A12</f>
-        <v>Ordering</v>
-      </c>
-      <c r="AC12" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;A13</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - The Contractor shall not order any geotextile prior to the acceptance of that geotextile by the Administrator.</v>
-      </c>
-      <c r="AD12" t="str">
-        <f>"Reference - "&amp;K12</f>
-        <v>Reference - MRTS57 Cl 8.2</v>
-      </c>
-      <c r="AE12" t="str">
-        <f>"Item Check - "&amp;L12</f>
-        <v>Item Check - Hold Point 2</v>
-      </c>
-      <c r="AG12" t="str">
-        <v>Reference - MRTS57 Clause
-5.2</v>
-      </c>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="AG13" t="str">
-        <v>Item Check - Milestone</v>
-      </c>
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="AB14" t="str">
-        <f>A14</f>
-        <v>Delivery</v>
-      </c>
-      <c r="AC14" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;A15</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - With each batch of geotextile incorporated in the Works, a certificate of compliance stating that the geotextile complies with all the requirements of this Technical Specification as appropriate to the application, together with test results reported on NATA endorsed test documents, shall be included in the Quality Records</v>
-      </c>
-      <c r="AD14" t="str">
-        <f>"Reference - "&amp;K14</f>
-        <v>Reference - MRTS57 Cl 8.4</v>
-      </c>
-      <c r="AE14" t="str">
-        <f>"Item Check - "&amp;L14</f>
-        <v>Item Check - Check and Verify</v>
-      </c>
-      <c r="AG14" t="str">
-        <v>Approval of construction Procedure</v>
-      </c>
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="AG15" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - No works related to the placement of paving geotextile(s) shall commence until the construction procedures have been approved by the Administrator and the Administrator has given the Contractor permission to proceed.</v>
-      </c>
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="AB16" t="str">
-        <f>A16</f>
-        <v>Surface Terperature</v>
-      </c>
-      <c r="AC16" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;A17</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - Spraying of bitumen or placement of geotextile shall not commence until the temperature of the surface of the pavement is above the temperature specified in MRTS11 Sprayed Bituminous Surfacing</v>
-      </c>
-      <c r="AD16" t="str">
-        <f>"Reference - "&amp;K16</f>
-        <v>Reference - MRTS57 Cl 9.3</v>
-      </c>
-      <c r="AE16" t="str">
-        <f>"Item Check - "&amp;L16</f>
-        <v>Item Check - Check and Verify</v>
-      </c>
-      <c r="AG16" t="str">
-        <v>Reference - MRTS57 Clause
-5.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="AG17" t="str">
-        <v>Item Check - Hold Point 1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="AG18" t="str">
-        <v>Ordering - Technical Data</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="AG19" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - At least 14 days prior to the proposed ordering date of any geotextile, the Contractor shall submit to the Administrator a copy of the proposed manufacturer’s technical data sheet and a sample of the proposed geotextile from the manufacturer demonstrating compliance with this Technical Specification</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="AG20" t="str">
-        <v>Reference - MRTS57 Cl 8.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="AG21" t="str">
-        <v>Item Check - Milestone</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="AG22" t="str">
-        <v>Ordering</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="AG23" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - The Contractor shall not order any geotextile prior to the acceptance of that geotextile by the Administrator.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="AG24" t="str">
-        <v>Reference - MRTS57 Cl 8.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="AG25" t="str">
-        <v>Item Check - Hold Point 2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="M26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="AG26" t="str">
-        <v>Delivery</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="AG27" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - With each batch of geotextile incorporated in the Works, a certificate of compliance stating that the geotextile complies with all the requirements of this Technical Specification as appropriate to the application, together with test results reported on NATA endorsed test documents, shall be included in the Quality Records</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="AG28" t="str">
-        <v>Reference - MRTS57 Cl 8.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="AG29" t="str">
-        <v>Item Check - Check and Verify</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="AG30" t="str">
-        <v>Surface Terperature</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="AG31" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - Spraying of bitumen or placement of geotextile shall not commence until the temperature of the surface of the pavement is above the temperature specified in MRTS11 Sprayed Bituminous Surfacing</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="AG32" t="str">
-        <v>Reference - MRTS57 Cl 9.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="AG33" t="str">
-        <v>Item Check - Check and Verify</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="N48" s="1"/>
     </row>
